--- a/ResultadoEleicoesDistritos/LISBOA_TORRES VEDRAS.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_TORRES VEDRAS.xlsx
@@ -597,64 +597,64 @@
         <v>21175</v>
       </c>
       <c r="H2" t="n">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="I2" t="n">
-        <v>2065</v>
+        <v>2137</v>
       </c>
       <c r="J2" t="n">
-        <v>8663</v>
+        <v>8710</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" t="n">
-        <v>2356</v>
+        <v>2397</v>
       </c>
       <c r="M2" t="n">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="N2" t="n">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>114</v>
+      </c>
+      <c r="S2" t="n">
+        <v>959</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1555</v>
+      </c>
+      <c r="U2" t="n">
+        <v>131</v>
+      </c>
+      <c r="V2" t="n">
+        <v>13529</v>
+      </c>
+      <c r="W2" t="n">
         <v>7</v>
       </c>
-      <c r="P2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>118</v>
-      </c>
-      <c r="S2" t="n">
-        <v>890</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1588</v>
-      </c>
-      <c r="U2" t="n">
-        <v>118</v>
-      </c>
-      <c r="V2" t="n">
-        <v>13935</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
       <c r="X2" t="n">
-        <v>13288</v>
+        <v>13443</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="AA2" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
